--- a/results/MVSE/freebase/MVSE_freebase<l01><NCEK>57.14.xlsx
+++ b/results/MVSE/freebase/MVSE_freebase<l01><NCEK>57.14.xlsx
@@ -539,7 +539,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -569,7 +573,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
@@ -608,7 +614,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -638,7 +648,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
@@ -734,7 +746,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_34_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -784,7 +798,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
@@ -857,7 +873,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
@@ -896,7 +914,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -926,7 +948,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
@@ -999,7 +1023,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>2</v>
+      </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
@@ -1038,7 +1064,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1068,7 +1098,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
@@ -1107,7 +1139,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1137,7 +1173,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
@@ -1210,7 +1248,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
@@ -1249,7 +1289,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1279,7 +1323,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
@@ -1352,7 +1398,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
